--- a/List of all local levels.xlsx
+++ b/List of all local levels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Local_level_indicator\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Local_level_indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D5AA2F-23AE-443E-AA4E-B2767362D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7327DC1D-B6F9-4696-9995-F24F29E0A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -2902,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09B4C69-6460-4722-BD4B-AFAF9D17F075}">
   <dimension ref="A1:Z747"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
